--- a/model-transform/src/main/resources/SharpOperators.xlsx
+++ b/model-transform/src/main/resources/SharpOperators.xlsx
@@ -86,7 +86,645 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="261">
+  <si>
+    <t>resultType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>operand1Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>operand2Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>operand3Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;T&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllFalse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arden workaround is a little sloppy:  We can use trim, then Find " " to locate the first whitespace character, and then can Substring up to this location, add the substring to a list, and then use the location of the found whitespace as the "start" for the next Find operation, looping until there is no more whitespace (or other seperator, since this will work equally well with any seperator)</t>
+  </si>
+  <si>
+    <t>Kind of strange that this is defined in HeD only for Real -&gt; Real since the result will always be an Int.  In any case, we can explicitly cast the result to int.</t>
+  </si>
+  <si>
+    <t>Arden provides this operation, but the result is a "number" because Arden has no concept of Integer</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Real/Time/Duration</t>
+  </si>
+  <si>
+    <t>Time/Duration</t>
+  </si>
+  <si>
+    <t>operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert&lt;C&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convert</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trim Right</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrimRight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrimLeft</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexEarliest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexLatest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexMin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexMax</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtractCharacters</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Max</t>
+  </si>
+  <si>
+    <t>Ordered Type</t>
+  </si>
+  <si>
+    <t>Arden "String" operator is a more general form of this that concatenates an arbitrary combination of strings and string lists as inputs</t>
+  </si>
+  <si>
+    <t>ParameterDef is not an operator, in that it has no return type; rather, it allows for the definition of a parameter that can be referenced by name within other expressions.</t>
+  </si>
+  <si>
+    <t>ParameterRef</t>
+  </si>
+  <si>
+    <t>References a previously defined parameter. The result type is the type of the parameter defined by the relevant ParameterDef.</t>
+  </si>
+  <si>
+    <t>PropertyExpression</t>
+  </si>
+  <si>
+    <t>A PropertyExpression is used within an ObjectExpression or ObjectRedefine to define the value of a property.</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>PRR</t>
+  </si>
+  <si>
+    <t>GELLO</t>
+  </si>
+  <si>
+    <t>Arden</t>
+  </si>
+  <si>
+    <t>HeD</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>UnlimitedNatural</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>ToString</t>
+  </si>
+  <si>
+    <t>Ceiling(x) = Floor(x) + 1</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>*Ask Bryn: Is this Integer division?</t>
+  </si>
+  <si>
+    <t>*Assumes that Int -&gt; Real upcasting is automatic</t>
+  </si>
+  <si>
+    <t>O = Optional</t>
+  </si>
+  <si>
+    <t>HeD Combine operator can be used to achieve the same result (though it may have to be repeated)</t>
+  </si>
+  <si>
+    <t>List&lt;Boolean&gt;</t>
+  </si>
+  <si>
+    <t>N-W?</t>
+  </si>
+  <si>
+    <t>In Arden, can use IS IN with two lists, and then retrieve the elements at the indexes that contain "true" in the resulting list</t>
+  </si>
+  <si>
+    <t>There are no intervals in Arden, but the functionality is given by a Ternary within operator that allows an ad hoc interval definition.</t>
+  </si>
+  <si>
+    <t>Arden: Real number division then truncate output</t>
+  </si>
+  <si>
+    <t>IndexOf?</t>
+  </si>
+  <si>
+    <t>GELLO always returns an Integer for Mod operations, but this can be casted to a real.</t>
+  </si>
+  <si>
+    <t>GELLO: String, Boolean, Int, Real</t>
+  </si>
+  <si>
+    <t>Acos</t>
+  </si>
+  <si>
+    <t>Asin</t>
+  </si>
+  <si>
+    <t>Atan</t>
+  </si>
+  <si>
+    <t>Cos</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>HeD: Use Power with 'e' as the base</t>
+  </si>
+  <si>
+    <t>Subsumed by more general Max aggregation operator in Arden/HeD</t>
+  </si>
+  <si>
+    <t>See notes for Max</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>Sin</t>
+  </si>
+  <si>
+    <t>Sqrt</t>
+  </si>
+  <si>
+    <t>In HeD, use Power (1/2)</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Xor</t>
+  </si>
+  <si>
+    <t>Can use AllTrue(Contains)</t>
+  </si>
+  <si>
+    <t>List&lt;S&gt;</t>
+  </si>
+  <si>
+    <t>Expression&lt;T:S&gt;</t>
+  </si>
+  <si>
+    <t>Flatten</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nArgs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>! Can convert Real, Int, Boolean, and UnlimitedNatural to String…not defined for other types</t>
+  </si>
+  <si>
+    <t>Trim Left</t>
+  </si>
+  <si>
+    <t>Trim Right</t>
+  </si>
+  <si>
+    <t>In Arden, can sort by keys using "Sort Data" or by time using "Sort Time"</t>
+  </si>
+  <si>
+    <t>DatePart</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Divide</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>ForEach</t>
+  </si>
+  <si>
+    <t>Greater</t>
+  </si>
+  <si>
+    <t>GreaterOrEqual</t>
+  </si>
+  <si>
+    <t>IfNull</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Indexer</t>
+  </si>
+  <si>
+    <t>IndexOf</t>
+  </si>
+  <si>
+    <t>Intersect</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>LessOrEqual</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Meets</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <t>NotEqual</t>
+  </si>
+  <si>
+    <t>Overlaps</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>ProperContains</t>
+  </si>
+  <si>
+    <t>ProperIn</t>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>Subtract</t>
+  </si>
+  <si>
+    <t>TruncatedDivide</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>Operand 3 Type</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>DateAdd</t>
+  </si>
+  <si>
+    <t>DateDiff</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Coalesce</t>
+  </si>
+  <si>
+    <t>Concat</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>All elements in the list are required to be of the same type.</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>AllTrue</t>
+  </si>
+  <si>
+    <t>AnyTrue</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>'T' varies depending on the ordered types in the given language</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Workaround for Arden: (NOT (Exists OR IsNull))</t>
+  </si>
+  <si>
+    <t>Supported for times in Arden (result is a duration); otherwise, must define an Interval type for Arden.</t>
+  </si>
+  <si>
+    <t>AllFalse ("No")</t>
+  </si>
+  <si>
+    <t>Equivalent to NOT AnyTrue</t>
+  </si>
+  <si>
+    <t>Earliest</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>'T' must have a time associated with it</t>
+  </si>
+  <si>
+    <t>Workaround for Arden is the same as for the Unary Split operator</t>
+  </si>
+  <si>
+    <t>Extract Characters</t>
+  </si>
+  <si>
+    <t>Log10</t>
+  </si>
+  <si>
+    <t>Arden has binary boolean operators which can be combined to accommodate an arbitrary number of inputs.</t>
+  </si>
+  <si>
+    <t>Arden doesn't allow you to define the returned units, but you can convert the result to any unit type using the \ operator.</t>
+  </si>
+  <si>
+    <t>Equivalent to Arden ',' operator</t>
+  </si>
+  <si>
+    <t>Operand Type (List)</t>
+  </si>
+  <si>
+    <t>SeqTo</t>
+  </si>
+  <si>
+    <t>Real (Int)</t>
+  </si>
+  <si>
+    <t>List&lt;Real(Int)&gt;</t>
+  </si>
+  <si>
+    <t>Arden spec says inputs (and outputs) are integers, but there is no integer type so this is enforced at runtime.</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Use "ALL EQUAL" in Arden</t>
+  </si>
+  <si>
+    <t>Index Earliest</t>
+  </si>
+  <si>
+    <t>Index Latest</t>
+  </si>
+  <si>
+    <t>Index Min</t>
+  </si>
+  <si>
+    <t>Year, month, day, hour, minute and second must be of type Integer, millisecond must be of type Real, and the result is of type Timestamp.</t>
+  </si>
+  <si>
+    <t>ExpressionDef</t>
+  </si>
+  <si>
+    <t>ExpressionDef is not an operator, in that it has no return type; rather, it allows for the definition of an expression that can be referenced by name in other expressions.</t>
+  </si>
+  <si>
+    <t>ExpressionRef</t>
+  </si>
+  <si>
+    <t>References an expression previously defined with ExpressionDef, the result type is the type of the expression defined in the relevant ExpressionDef.</t>
+  </si>
+  <si>
+    <t>ParameterDef</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Object&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Object types are defined to be a collection of name value pairs, where each name uniquely identifies a property of any type.</t>
+  </si>
+  <si>
+    <t>Interval&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Intervals are defined over Point Types, where a point type must have a comparator and successor and predecessor operators defined.</t>
+  </si>
+  <si>
+    <t>List&lt;&gt;</t>
+  </si>
+  <si>
+    <t>List types are defined to have a single element type of any type.</t>
+  </si>
+  <si>
+    <t>DateGranularity</t>
+  </si>
+  <si>
+    <t>Enumerated type { Year, Month, Week, Day, Hour, Minute, Second, Millisecond }</t>
+  </si>
+  <si>
+    <t>From\To</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not Defined</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Result Type</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ComplexLiteral</t>
+  </si>
+  <si>
+    <t>Object&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Collection&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>If Collection = List, can merge this and next row.</t>
+  </si>
+  <si>
+    <t>Y+</t>
+  </si>
+  <si>
+    <t>For OCL/PRR/GELLO: Integer 1 = Start; Integer 2 = End, For Arden, Integer 1 = # Chars, Integer 2 = Start</t>
+  </si>
+  <si>
+    <t>+ No Explicit "IsNull" but each has ways of checking for null values</t>
+  </si>
+  <si>
+    <t>N-W</t>
+  </si>
+  <si>
+    <t>In Arden, we must create the Interval datatype (it is defined as having a beginning and ending)</t>
+  </si>
+  <si>
+    <t>See notes for "Begin"</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Removes leading and trailing whitespace</t>
+  </si>
+  <si>
+    <t>In Arden, the || operator converts inputs to string and then concatenates them, so combining the argument with an empty string _should_ serve to convert it to a string.  There may be a more elegant workaround….</t>
+  </si>
+  <si>
+    <t>Y!</t>
+  </si>
   <si>
     <t>The result type is always an Object type with the properties defined by the XML literal provided by the value attribute.</t>
   </si>
@@ -258,604 +896,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Year, month, day, hour, minute and second must be of type Integer, millisecond must be of type Real, and the result is of type Timestamp.</t>
-  </si>
-  <si>
-    <t>ExpressionDef</t>
-  </si>
-  <si>
-    <t>ExpressionDef is not an operator, in that it has no return type; rather, it allows for the definition of an expression that can be referenced by name in other expressions.</t>
-  </si>
-  <si>
-    <t>ExpressionRef</t>
-  </si>
-  <si>
-    <t>References an expression previously defined with ExpressionDef, the result type is the type of the expression defined in the relevant ExpressionDef.</t>
-  </si>
-  <si>
-    <t>ParameterDef</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Object&lt;&gt;</t>
-  </si>
-  <si>
-    <t>Object types are defined to be a collection of name value pairs, where each name uniquely identifies a property of any type.</t>
-  </si>
-  <si>
-    <t>Interval&lt;&gt;</t>
-  </si>
-  <si>
-    <t>Intervals are defined over Point Types, where a point type must have a comparator and successor and predecessor operators defined.</t>
-  </si>
-  <si>
-    <t>List&lt;&gt;</t>
-  </si>
-  <si>
-    <t>List types are defined to have a single element type of any type.</t>
-  </si>
-  <si>
-    <t>DateGranularity</t>
-  </si>
-  <si>
-    <t>Enumerated type { Year, Month, Week, Day, Hour, Minute, Second, Millisecond }</t>
-  </si>
-  <si>
-    <t>From\To</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Not Defined</t>
-  </si>
-  <si>
-    <t>True/False</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Result Type</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>ComplexLiteral</t>
-  </si>
-  <si>
-    <t>Object&lt;T&gt;</t>
-  </si>
-  <si>
-    <t>Collection&lt;T&gt;</t>
-  </si>
-  <si>
-    <t>If Collection = List, can merge this and next row.</t>
-  </si>
-  <si>
-    <t>Y+</t>
-  </si>
-  <si>
-    <t>For OCL/PRR/GELLO: Integer 1 = Start; Integer 2 = End, For Arden, Integer 1 = # Chars, Integer 2 = Start</t>
-  </si>
-  <si>
-    <t>+ No Explicit "IsNull" but each has ways of checking for null values</t>
-  </si>
-  <si>
-    <t>N-W</t>
-  </si>
-  <si>
-    <t>In Arden, we must create the Interval datatype (it is defined as having a beginning and ending)</t>
-  </si>
-  <si>
-    <t>See notes for "Begin"</t>
-  </si>
-  <si>
-    <t>Trim</t>
-  </si>
-  <si>
-    <t>Removes leading and trailing whitespace</t>
-  </si>
-  <si>
-    <t>In Arden, the || operator converts inputs to string and then concatenates them, so combining the argument with an empty string _should_ serve to convert it to a string.  There may be a more elegant workaround….</t>
-  </si>
-  <si>
-    <t>Y!</t>
-  </si>
-  <si>
-    <t>! Can convert Real, Int, Boolean, and UnlimitedNatural to String…not defined for other types</t>
-  </si>
-  <si>
-    <t>Trim Left</t>
-  </si>
-  <si>
-    <t>Trim Right</t>
-  </si>
-  <si>
-    <t>In Arden, can sort by keys using "Sort Data" or by time using "Sort Time"</t>
-  </si>
-  <si>
-    <t>DatePart</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Divide</t>
-  </si>
-  <si>
-    <t>Equal</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>ForEach</t>
-  </si>
-  <si>
-    <t>Greater</t>
-  </si>
-  <si>
-    <t>GreaterOrEqual</t>
-  </si>
-  <si>
-    <t>IfNull</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Indexer</t>
-  </si>
-  <si>
-    <t>IndexOf</t>
-  </si>
-  <si>
-    <t>Intersect</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Less</t>
-  </si>
-  <si>
-    <t>LessOrEqual</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Meets</t>
-  </si>
-  <si>
-    <t>Modulo</t>
-  </si>
-  <si>
-    <t>Multiply</t>
-  </si>
-  <si>
-    <t>NotEqual</t>
-  </si>
-  <si>
-    <t>Overlaps</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>ProperContains</t>
-  </si>
-  <si>
-    <t>ProperIn</t>
-  </si>
-  <si>
-    <t>Substring</t>
-  </si>
-  <si>
-    <t>Subtract</t>
-  </si>
-  <si>
-    <t>TruncatedDivide</t>
-  </si>
-  <si>
-    <t>Within</t>
-  </si>
-  <si>
-    <t>Operand 3 Type</t>
-  </si>
-  <si>
-    <t>Conditional</t>
-  </si>
-  <si>
-    <t>DateAdd</t>
-  </si>
-  <si>
-    <t>DateDiff</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Coalesce</t>
-  </si>
-  <si>
-    <t>Concat</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>All elements in the list are required to be of the same type.</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>AllTrue</t>
-  </si>
-  <si>
-    <t>AnyTrue</t>
-  </si>
-  <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>'T' varies depending on the ordered types in the given language</t>
-  </si>
-  <si>
-    <t>StdDev</t>
-  </si>
-  <si>
-    <t>Variance</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Workaround for Arden: (NOT (Exists OR IsNull))</t>
-  </si>
-  <si>
-    <t>Supported for times in Arden (result is a duration); otherwise, must define an Interval type for Arden.</t>
-  </si>
-  <si>
-    <t>AllFalse ("No")</t>
-  </si>
-  <si>
-    <t>Equivalent to NOT AnyTrue</t>
-  </si>
-  <si>
-    <t>Earliest</t>
-  </si>
-  <si>
-    <t>Latest</t>
-  </si>
-  <si>
-    <t>'T' must have a time associated with it</t>
-  </si>
-  <si>
-    <t>Workaround for Arden is the same as for the Unary Split operator</t>
-  </si>
-  <si>
-    <t>Extract Characters</t>
-  </si>
-  <si>
-    <t>Log10</t>
-  </si>
-  <si>
-    <t>Arden has binary boolean operators which can be combined to accommodate an arbitrary number of inputs.</t>
-  </si>
-  <si>
-    <t>Arden doesn't allow you to define the returned units, but you can convert the result to any unit type using the \ operator.</t>
-  </si>
-  <si>
-    <t>Equivalent to Arden ',' operator</t>
-  </si>
-  <si>
-    <t>Operand Type (List)</t>
-  </si>
-  <si>
-    <t>SeqTo</t>
-  </si>
-  <si>
-    <t>Real (Int)</t>
-  </si>
-  <si>
-    <t>List&lt;Real(Int)&gt;</t>
-  </si>
-  <si>
-    <t>Arden spec says inputs (and outputs) are integers, but there is no integer type so this is enforced at runtime.</t>
-  </si>
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>Use "ALL EQUAL" in Arden</t>
-  </si>
-  <si>
-    <t>Index Earliest</t>
-  </si>
-  <si>
-    <t>Index Latest</t>
-  </si>
-  <si>
-    <t>Index Min</t>
-  </si>
-  <si>
-    <t>Index Max</t>
-  </si>
-  <si>
-    <t>Ordered Type</t>
-  </si>
-  <si>
-    <t>Arden "String" operator is a more general form of this that concatenates an arbitrary combination of strings and string lists as inputs</t>
-  </si>
-  <si>
-    <t>ParameterDef is not an operator, in that it has no return type; rather, it allows for the definition of a parameter that can be referenced by name within other expressions.</t>
-  </si>
-  <si>
-    <t>ParameterRef</t>
-  </si>
-  <si>
-    <t>References a previously defined parameter. The result type is the type of the parameter defined by the relevant ParameterDef.</t>
-  </si>
-  <si>
-    <t>PropertyExpression</t>
-  </si>
-  <si>
-    <t>A PropertyExpression is used within an ObjectExpression or ObjectRedefine to define the value of a property.</t>
-  </si>
-  <si>
-    <t>OCL</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
-    <t>GELLO</t>
-  </si>
-  <si>
-    <t>Arden</t>
-  </si>
-  <si>
-    <t>HeD</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>UnlimitedNatural</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>ToString</t>
-  </si>
-  <si>
-    <t>Ceiling(x) = Floor(x) + 1</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>*Ask Bryn: Is this Integer division?</t>
-  </si>
-  <si>
-    <t>*Assumes that Int -&gt; Real upcasting is automatic</t>
-  </si>
-  <si>
-    <t>O = Optional</t>
-  </si>
-  <si>
-    <t>HeD Combine operator can be used to achieve the same result (though it may have to be repeated)</t>
-  </si>
-  <si>
-    <t>List&lt;Boolean&gt;</t>
-  </si>
-  <si>
-    <t>N-W?</t>
-  </si>
-  <si>
-    <t>In Arden, can use IS IN with two lists, and then retrieve the elements at the indexes that contain "true" in the resulting list</t>
-  </si>
-  <si>
-    <t>There are no intervals in Arden, but the functionality is given by a Ternary within operator that allows an ad hoc interval definition.</t>
-  </si>
-  <si>
-    <t>Arden: Real number division then truncate output</t>
-  </si>
-  <si>
-    <t>IndexOf?</t>
-  </si>
-  <si>
-    <t>GELLO always returns an Integer for Mod operations, but this can be casted to a real.</t>
-  </si>
-  <si>
-    <t>GELLO: String, Boolean, Int, Real</t>
-  </si>
-  <si>
-    <t>Acos</t>
-  </si>
-  <si>
-    <t>Asin</t>
-  </si>
-  <si>
-    <t>Atan</t>
-  </si>
-  <si>
-    <t>Cos</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>HeD: Use Power with 'e' as the base</t>
-  </si>
-  <si>
-    <t>Subsumed by more general Max aggregation operator in Arden/HeD</t>
-  </si>
-  <si>
-    <t>See notes for Max</t>
-  </si>
-  <si>
-    <t>Rand</t>
-  </si>
-  <si>
-    <t>Sin</t>
-  </si>
-  <si>
-    <t>Sqrt</t>
-  </si>
-  <si>
-    <t>In HeD, use Power (1/2)</t>
-  </si>
-  <si>
-    <t>Tan</t>
-  </si>
-  <si>
-    <t>Xor</t>
-  </si>
-  <si>
-    <t>Can use AllTrue(Contains)</t>
-  </si>
-  <si>
-    <t>List&lt;S&gt;</t>
-  </si>
-  <si>
-    <t>Expression&lt;T:S&gt;</t>
-  </si>
-  <si>
-    <t>Flatten</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nArgs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>operand1Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>operand2Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>operand3Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;T&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllFalse</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arden workaround is a little sloppy:  We can use trim, then Find " " to locate the first whitespace character, and then can Substring up to this location, add the substring to a list, and then use the location of the found whitespace as the "start" for the next Find operation, looping until there is no more whitespace (or other seperator, since this will work equally well with any seperator)</t>
-  </si>
-  <si>
-    <t>Kind of strange that this is defined in HeD only for Real -&gt; Real since the result will always be an Int.  In any case, we can explicitly cast the result to int.</t>
-  </si>
-  <si>
-    <t>Arden provides this operation, but the result is a "number" because Arden has no concept of Integer</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Exist</t>
-  </si>
-  <si>
-    <t>Real/Time/Duration</t>
-  </si>
-  <si>
-    <t>Time/Duration</t>
   </si>
 </sst>
 </file>
@@ -1304,9 +1344,9 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="640" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="640" topLeftCell="A111" activePane="bottomLeft"/>
       <selection sqref="A1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -1320,2464 +1360,2487 @@
     <col min="7" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>207</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="B15" s="9">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B17" s="9">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B19" s="9">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="B20" s="9">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="B24" s="9">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="9" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="B25" s="9">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B26" s="9">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B27" s="9">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B28" s="9">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="B29" s="9">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B30" s="9">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="9" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B32" s="9">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B33" s="9">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="B34" s="9">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="B35" s="9">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B36" s="9">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="B37" s="9">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B38" s="9">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="B40" s="9">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="B41" s="9">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B43" s="9">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B45" s="9">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B46" s="9">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B47" s="9">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="B48" s="9">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B50" s="9">
         <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="B51" s="9">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B52" s="9">
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B53" s="9">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="10" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B82">
         <v>2</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="10" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E86" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E90" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E100" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E103" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E104" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E106" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="10" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D113" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>51</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="10" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D115" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E115" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E117" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E119" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D120" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E120" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="E121" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B122" s="10">
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E122" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="F122" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="E123" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="F123" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="E124" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F124" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B125" s="5">
         <v>3</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D127" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D128" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C130" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="14" customFormat="1">
       <c r="A137" s="14" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B138" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D141" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D143" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D145" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="G145" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D146" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B147" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D147" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B148" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D149" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B150" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
+      </c>
+      <c r="G151" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>171</v>
+        <v>25</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D157" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3804,155 +3867,155 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3981,170 +4044,169 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4174,1130 +4236,1130 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="10" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="10" t="s">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="H39" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s">
-        <v>244</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1">
@@ -5305,17 +5367,17 @@
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1">
       <c r="J58" s="2" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1">
       <c r="J59" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="J60" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5348,1435 +5410,1435 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>227</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="10" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>207</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="10" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="10" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="10" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6806,138 +6868,138 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6967,179 +7029,179 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -7172,443 +7234,443 @@
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7635,66 +7697,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" customHeight="1">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75" customHeight="1">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -7718,122 +7780,122 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
